--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H2">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N2">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q2">
-        <v>6.992527328190045</v>
+        <v>12.70305092008334</v>
       </c>
       <c r="R2">
-        <v>6.992527328190045</v>
+        <v>114.32745828075</v>
       </c>
       <c r="S2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="T2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H3">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N3">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q3">
-        <v>80.80693060110715</v>
+        <v>131.2115017930167</v>
       </c>
       <c r="R3">
-        <v>80.80693060110715</v>
+        <v>1180.90351613715</v>
       </c>
       <c r="S3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="T3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H4">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N4">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q4">
-        <v>1.093530215885718</v>
+        <v>2.380617409834445</v>
       </c>
       <c r="R4">
-        <v>1.093530215885718</v>
+        <v>21.42555668851</v>
       </c>
       <c r="S4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="T4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H5">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N5">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q5">
-        <v>0.6558790075954252</v>
+        <v>1.95694786391</v>
       </c>
       <c r="R5">
-        <v>0.6558790075954252</v>
+        <v>17.61253077519</v>
       </c>
       <c r="S5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="T5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.24747299315913</v>
+        <v>1.883656666666667</v>
       </c>
       <c r="H6">
-        <v>1.24747299315913</v>
+        <v>5.650970000000001</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N6">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q6">
-        <v>35.65928338639436</v>
+        <v>57.45536345830668</v>
       </c>
       <c r="R6">
-        <v>35.65928338639436</v>
+        <v>344.73218074984</v>
       </c>
       <c r="S6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="T6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
     </row>
   </sheetData>
